--- a/biology/Médecine/Élémi/Élémi.xlsx
+++ b/biology/Médecine/Élémi/Élémi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89l%C3%A9mi</t>
+          <t>Élémi</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'élémi est une gomme-résine produite par différentes espèces de plantes de la famille des Burseraceae et utilisée jadis en médecine et pour la fabrication de vernis. Le terme s'appliquait à l'origine à une substance originaire d'Éthiopie (produite par une espèce du genre Boswellia) , remplacée ensuite dans le commerce par des produits américains, et plus particulièrement par l'élémi du Brésil (probablement l'espèce Protium icicariba). Ces derniers ont à leur tour été substitués par l'élémi de Manille, qui provient d'un Canarium[1]. Au XXIe siècle, l'huile essentielle d'élémi est tirée de l'espèce Canarium luzonicum (en)[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'élémi est une gomme-résine produite par différentes espèces de plantes de la famille des Burseraceae et utilisée jadis en médecine et pour la fabrication de vernis. Le terme s'appliquait à l'origine à une substance originaire d'Éthiopie (produite par une espèce du genre Boswellia) , remplacée ensuite dans le commerce par des produits américains, et plus particulièrement par l'élémi du Brésil (probablement l'espèce Protium icicariba). Ces derniers ont à leur tour été substitués par l'élémi de Manille, qui provient d'un Canarium. Au XXIe siècle, l'huile essentielle d'élémi est tirée de l'espèce Canarium luzonicum (en).
 </t>
         </is>
       </c>
